--- a/temp/THU CHI T7-22.xlsx
+++ b/temp/THU CHI T7-22.xlsx
@@ -32730,7 +32730,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="308" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 22/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 26/09/2022</v>
       </c>
       <c r="B1" s="308"/>
       <c r="C1" s="308"/>
@@ -32764,7 +32764,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="308" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       20:29</v>
+        <v>Ecco - Crescent Mall                 Gio:       07:47</v>
       </c>
       <c r="B2" s="308"/>
       <c r="C2" s="308"/>

--- a/temp/THU CHI T7-22.xlsx
+++ b/temp/THU CHI T7-22.xlsx
@@ -32730,7 +32730,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="308" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 26/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 28/09/2022</v>
       </c>
       <c r="B1" s="308"/>
       <c r="C1" s="308"/>

--- a/temp/THU CHI T7-22.xlsx
+++ b/temp/THU CHI T7-22.xlsx
@@ -32730,7 +32730,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="308" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 28/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 29/09/2022</v>
       </c>
       <c r="B1" s="308"/>
       <c r="C1" s="308"/>
@@ -32764,7 +32764,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="308" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       07:47</v>
+        <v>Ecco - Crescent Mall                 Gio:       08:12</v>
       </c>
       <c r="B2" s="308"/>
       <c r="C2" s="308"/>

--- a/temp/THU CHI T7-22.xlsx
+++ b/temp/THU CHI T7-22.xlsx
@@ -32764,7 +32764,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="308" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       08:12</v>
+        <v>Ecco - Crescent Mall                 Gio:       22:03</v>
       </c>
       <c r="B2" s="308"/>
       <c r="C2" s="308"/>
